--- a/Team-Data/2013-14/11-14-2013-14.xlsx
+++ b/Team-Data/2013-14/11-14-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -765,7 +832,7 @@
         <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL2" t="n">
         <v>12</v>
@@ -783,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="AQ2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT2" t="n">
         <v>21</v>
@@ -801,10 +868,10 @@
         <v>3</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY2" t="n">
         <v>6</v>
@@ -816,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="BB2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -926,13 +993,13 @@
         <v>-0.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG3" t="n">
         <v>16</v>
@@ -941,10 +1008,10 @@
         <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
         <v>12</v>
@@ -962,7 +1029,7 @@
         <v>20</v>
       </c>
       <c r="AP3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>10</v>
@@ -998,7 +1065,7 @@
         <v>20</v>
       </c>
       <c r="BB3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC3" t="n">
         <v>17</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-5.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
         <v>25</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
         <v>25</v>
@@ -1126,7 +1193,7 @@
         <v>22</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK4" t="n">
         <v>17</v>
@@ -1153,10 +1220,10 @@
         <v>25</v>
       </c>
       <c r="AS4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU4" t="n">
         <v>16</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
@@ -1308,7 +1375,7 @@
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK5" t="n">
         <v>29</v>
@@ -1329,7 +1396,7 @@
         <v>2</v>
       </c>
       <c r="AQ5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR5" t="n">
         <v>17</v>
@@ -1350,7 +1417,7 @@
         <v>26</v>
       </c>
       <c r="AX5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -1478,7 +1545,7 @@
         <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1490,10 +1557,10 @@
         <v>27</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>19</v>
@@ -1690,7 +1757,7 @@
         <v>22</v>
       </c>
       <c r="AP7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ7" t="n">
         <v>13</v>
@@ -1702,7 +1769,7 @@
         <v>19</v>
       </c>
       <c r="AT7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU7" t="n">
         <v>25</v>
@@ -1711,7 +1778,7 @@
         <v>14</v>
       </c>
       <c r="AW7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX7" t="n">
         <v>14</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -1836,13 +1903,13 @@
         <v>3.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG8" t="n">
         <v>7</v>
@@ -1851,7 +1918,7 @@
         <v>12</v>
       </c>
       <c r="AI8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ8" t="n">
         <v>7</v>
@@ -1884,7 +1951,7 @@
         <v>16</v>
       </c>
       <c r="AT8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU8" t="n">
         <v>11</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2063,7 +2130,7 @@
         <v>4</v>
       </c>
       <c r="AS9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>-3.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG10" t="n">
         <v>25</v>
@@ -2221,10 +2288,10 @@
         <v>8</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>15</v>
@@ -2266,7 +2333,7 @@
         <v>14</v>
       </c>
       <c r="AZ10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA10" t="n">
         <v>11</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -2304,103 +2371,103 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>0.667</v>
+        <v>0.625</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>39.7</v>
+        <v>39</v>
       </c>
       <c r="J11" t="n">
-        <v>80.8</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.491</v>
+        <v>0.493</v>
       </c>
       <c r="L11" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="M11" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.455</v>
+        <v>0.437</v>
       </c>
       <c r="O11" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="P11" t="n">
-        <v>20.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.717</v>
+        <v>0.706</v>
       </c>
       <c r="R11" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="S11" t="n">
-        <v>33.6</v>
+        <v>35</v>
       </c>
       <c r="T11" t="n">
-        <v>42.2</v>
+        <v>43.6</v>
       </c>
       <c r="U11" t="n">
+        <v>25</v>
+      </c>
+      <c r="V11" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="W11" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z11" t="n">
         <v>25.1</v>
       </c>
-      <c r="V11" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="W11" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="X11" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>24.8</v>
-      </c>
       <c r="AA11" t="n">
-        <v>21.1</v>
+        <v>21.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>105.2</v>
+        <v>103.9</v>
       </c>
       <c r="AC11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG11" t="n">
         <v>7</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>4</v>
       </c>
       <c r="AH11" t="n">
         <v>12</v>
       </c>
       <c r="AI11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AK11" t="n">
         <v>2</v>
@@ -2412,34 +2479,34 @@
         <v>5</v>
       </c>
       <c r="AN11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>27</v>
       </c>
-      <c r="AP11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>22</v>
-      </c>
       <c r="AR11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS11" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AU11" t="n">
         <v>5</v>
       </c>
       <c r="AV11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AW11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX11" t="n">
         <v>5</v>
@@ -2448,10 +2515,10 @@
         <v>4</v>
       </c>
       <c r="AZ11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB11" t="n">
         <v>7</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -2486,88 +2553,88 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6</v>
+        <v>0.556</v>
       </c>
       <c r="H12" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="I12" t="n">
-        <v>36.1</v>
+        <v>36.7</v>
       </c>
       <c r="J12" t="n">
-        <v>77.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L12" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="N12" t="n">
         <v>0.321</v>
       </c>
       <c r="O12" t="n">
-        <v>26.6</v>
+        <v>25.3</v>
       </c>
       <c r="P12" t="n">
-        <v>38.2</v>
+        <v>37.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.696</v>
+        <v>0.675</v>
       </c>
       <c r="R12" t="n">
         <v>11.4</v>
       </c>
       <c r="S12" t="n">
-        <v>36.2</v>
+        <v>36.7</v>
       </c>
       <c r="T12" t="n">
-        <v>47.6</v>
+        <v>48.1</v>
       </c>
       <c r="U12" t="n">
-        <v>19.5</v>
+        <v>20.1</v>
       </c>
       <c r="V12" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="W12" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>107.5</v>
+        <v>107.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
         <v>12</v>
@@ -2576,16 +2643,16 @@
         <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AJ12" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AK12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL12" t="n">
         <v>7</v>
@@ -2603,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR12" t="n">
         <v>16</v>
@@ -2615,22 +2682,22 @@
         <v>1</v>
       </c>
       <c r="AU12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX12" t="n">
         <v>2</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>10.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2791,7 +2858,7 @@
         <v>23</v>
       </c>
       <c r="AS13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2995,16 @@
         <v>4</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
         <v>12</v>
@@ -2955,10 +3022,10 @@
         <v>10</v>
       </c>
       <c r="AM14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -2976,7 +3043,7 @@
         <v>17</v>
       </c>
       <c r="AT14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -2994,7 +3061,7 @@
         <v>5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -3119,13 +3186,13 @@
         <v>26</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH15" t="n">
         <v>12</v>
       </c>
       <c r="AI15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
         <v>3</v>
@@ -3137,7 +3204,7 @@
         <v>3</v>
       </c>
       <c r="AM15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN15" t="n">
         <v>7</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -3292,25 +3359,25 @@
         <v>-4.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>19</v>
       </c>
       <c r="AF16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI16" t="n">
         <v>16</v>
       </c>
       <c r="AJ16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3328,7 +3395,7 @@
         <v>20</v>
       </c>
       <c r="AP16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>10</v>
@@ -3361,10 +3428,10 @@
         <v>16</v>
       </c>
       <c r="BA16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC16" t="n">
         <v>25</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -3474,13 +3541,13 @@
         <v>6.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG17" t="n">
         <v>7</v>
@@ -3489,7 +3556,7 @@
         <v>12</v>
       </c>
       <c r="AI17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3504,7 +3571,7 @@
         <v>14</v>
       </c>
       <c r="AN17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO17" t="n">
         <v>12</v>
@@ -3513,7 +3580,7 @@
         <v>8</v>
       </c>
       <c r="AQ17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-5.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
       </c>
       <c r="AF18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG18" t="n">
         <v>25</v>
@@ -3674,7 +3741,7 @@
         <v>28</v>
       </c>
       <c r="AJ18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK18" t="n">
         <v>19</v>
@@ -3707,7 +3774,7 @@
         <v>28</v>
       </c>
       <c r="AU18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV18" t="n">
         <v>19</v>
@@ -3728,7 +3795,7 @@
         <v>20</v>
       </c>
       <c r="BB18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC18" t="n">
         <v>26</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -3838,16 +3905,16 @@
         <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>3</v>
       </c>
       <c r="AF19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH19" t="n">
         <v>10</v>
@@ -3883,10 +3950,10 @@
         <v>11</v>
       </c>
       <c r="AS19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU19" t="n">
         <v>4</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-2</v>
       </c>
       <c r="AD20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE20" t="n">
         <v>19</v>
@@ -4038,7 +4105,7 @@
         <v>15</v>
       </c>
       <c r="AJ20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
         <v>20</v>
@@ -4083,10 +4150,10 @@
         <v>3</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA20" t="n">
         <v>19</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -4124,115 +4191,115 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>0.375</v>
+        <v>0.429</v>
       </c>
       <c r="H21" t="n">
         <v>48</v>
       </c>
       <c r="I21" t="n">
-        <v>36.3</v>
+        <v>36</v>
       </c>
       <c r="J21" t="n">
-        <v>84.40000000000001</v>
+        <v>84</v>
       </c>
       <c r="K21" t="n">
-        <v>0.43</v>
+        <v>0.429</v>
       </c>
       <c r="L21" t="n">
         <v>8.4</v>
       </c>
       <c r="M21" t="n">
-        <v>24.9</v>
+        <v>25.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.337</v>
+        <v>0.33</v>
       </c>
       <c r="O21" t="n">
-        <v>14</v>
+        <v>12.9</v>
       </c>
       <c r="P21" t="n">
-        <v>18.1</v>
+        <v>16.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.772</v>
+        <v>0.763</v>
       </c>
       <c r="R21" t="n">
         <v>10.4</v>
       </c>
       <c r="S21" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="T21" t="n">
-        <v>37.6</v>
+        <v>37.9</v>
       </c>
       <c r="U21" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V21" t="n">
-        <v>13</v>
+        <v>13.6</v>
       </c>
       <c r="W21" t="n">
-        <v>8.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="X21" t="n">
         <v>4.9</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Z21" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="AD21" t="n">
         <v>23</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>14</v>
       </c>
       <c r="AE21" t="n">
         <v>19</v>
       </c>
       <c r="AF21" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH21" t="n">
         <v>12</v>
       </c>
       <c r="AI21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
         <v>8</v>
       </c>
       <c r="AM21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,7 +4308,7 @@
         <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR21" t="n">
         <v>21</v>
@@ -4259,22 +4326,22 @@
         <v>2</v>
       </c>
       <c r="AW21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX21" t="n">
         <v>18</v>
       </c>
       <c r="AY21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ21" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
       </c>
       <c r="BB21" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BC21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -4306,109 +4373,109 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>0.625</v>
+        <v>0.714</v>
       </c>
       <c r="H22" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I22" t="n">
-        <v>36.8</v>
+        <v>36.1</v>
       </c>
       <c r="J22" t="n">
-        <v>81.8</v>
+        <v>82</v>
       </c>
       <c r="K22" t="n">
-        <v>0.45</v>
+        <v>0.441</v>
       </c>
       <c r="L22" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="M22" t="n">
-        <v>19.5</v>
+        <v>19.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.301</v>
+        <v>0.284</v>
       </c>
       <c r="O22" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="P22" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.837</v>
+        <v>0.834</v>
       </c>
       <c r="R22" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="S22" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="T22" t="n">
-        <v>45.6</v>
+        <v>45.3</v>
       </c>
       <c r="U22" t="n">
         <v>20.4</v>
       </c>
       <c r="V22" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="W22" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="X22" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.4</v>
+        <v>23.1</v>
       </c>
       <c r="AA22" t="n">
         <v>22.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.4</v>
+        <v>102.9</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AE22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG22" t="n">
         <v>4</v>
       </c>
-      <c r="AG22" t="n">
-        <v>7</v>
-      </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK22" t="n">
         <v>16</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>15</v>
-      </c>
       <c r="AL22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM22" t="n">
         <v>23</v>
@@ -4429,10 +4496,10 @@
         <v>7</v>
       </c>
       <c r="AS22" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AT22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AU22" t="n">
         <v>18</v>
@@ -4441,22 +4508,22 @@
         <v>27</v>
       </c>
       <c r="AW22" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AX22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY22" t="n">
         <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="BA22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC22" t="n">
         <v>15</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -4566,13 +4633,13 @@
         <v>1.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>13</v>
       </c>
       <c r="AF23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG23" t="n">
         <v>16</v>
@@ -4602,16 +4669,16 @@
         <v>28</v>
       </c>
       <c r="AP23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR23" t="n">
         <v>14</v>
       </c>
       <c r="AS23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>-2.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF24" t="n">
         <v>12</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
         <v>1</v>
@@ -4793,10 +4860,10 @@
         <v>18</v>
       </c>
       <c r="AS24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU24" t="n">
         <v>7</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -4930,13 +4997,13 @@
         <v>3.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG25" t="n">
         <v>7</v>
@@ -4990,10 +5057,10 @@
         <v>4</v>
       </c>
       <c r="AX25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ25" t="n">
         <v>7</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>3.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
@@ -5148,7 +5215,7 @@
         <v>24</v>
       </c>
       <c r="AP26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ26" t="n">
         <v>15</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-3.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
@@ -5345,7 +5412,7 @@
         <v>26</v>
       </c>
       <c r="AU27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV27" t="n">
         <v>1</v>
@@ -5366,7 +5433,7 @@
         <v>18</v>
       </c>
       <c r="BB27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC27" t="n">
         <v>22</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5494,7 +5561,7 @@
         <v>3</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>2.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG29" t="n">
         <v>16</v>
@@ -5697,7 +5764,7 @@
         <v>9</v>
       </c>
       <c r="AQ29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR29" t="n">
         <v>3</v>
@@ -5721,7 +5788,7 @@
         <v>25</v>
       </c>
       <c r="AY29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ29" t="n">
         <v>27</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-11.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>30</v>
@@ -5858,7 +5925,7 @@
         <v>29</v>
       </c>
       <c r="AJ30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK30" t="n">
         <v>28</v>
@@ -5879,7 +5946,7 @@
         <v>6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR30" t="n">
         <v>2</v>
@@ -5888,7 +5955,7 @@
         <v>27</v>
       </c>
       <c r="AT30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU30" t="n">
         <v>28</v>
@@ -5906,7 +5973,7 @@
         <v>13</v>
       </c>
       <c r="AZ30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
         <v>25</v>
@@ -6055,13 +6122,13 @@
         <v>6</v>
       </c>
       <c r="AO31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP31" t="n">
         <v>20</v>
       </c>
       <c r="AQ31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR31" t="n">
         <v>15</v>
@@ -6085,7 +6152,7 @@
         <v>24</v>
       </c>
       <c r="AY31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ31" t="n">
         <v>8</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-14-2013-14</t>
+          <t>2013-11-14</t>
         </is>
       </c>
     </row>
